--- a/biology/Zoologie/Aigrette_pie/Aigrette_pie.xlsx
+++ b/biology/Zoologie/Aigrette_pie/Aigrette_pie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Egretta picata
 L'Aigrette pie (Egretta picata), aussi connue sous le nom normalisé de Héron pie, est une espèce de hérons vivant dans les régions côtières et avoisinantes de l'Australie du nord à climat de mousson, ainsi que dans quelques régions de la Wallacea et de la Nouvelle-Guinée.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un petit héron avec le corps, les ailes et la tête couleur ardoise, le cou blanc.
 </t>
@@ -543,7 +557,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il habite les prairies humides du nord de l'Australie.
 </t>
@@ -574,7 +590,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se nourrit d'insectes et autres petits animaux aquatiques.
 </t>
@@ -605,7 +623,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il niche dans les arbres, souvent avec d'autres espèces de hérons.
 </t>
